--- a/ExcelWorkbook2/ExcelWorkbook2.xlsx
+++ b/ExcelWorkbook2/ExcelWorkbook2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kysudo\source\repos\BIMSoftVN\K010\ExcelWorkbook2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A528879-44CE-4117-80F8-5259C47079C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EEC04-9CAB-428C-BFDA-8AC1B0BC473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{494D7057-E502-40BF-B06F-0D329F466A8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Ngày</t>
   </si>
@@ -469,12 +470,258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD0F13-1102-45BD-883E-7FC227B5361C}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB2A760-32CC-46E3-B78B-742A2D0801E0}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelWorkbook2/ExcelWorkbook2.xlsx
+++ b/ExcelWorkbook2/ExcelWorkbook2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kysudo\source\repos\BIMSoftVN\K010\ExcelWorkbook2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EEC04-9CAB-428C-BFDA-8AC1B0BC473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7980C0-CB4C-4E0F-AEC4-C3E0672E0280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{494D7057-E502-40BF-B06F-0D329F466A8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Ngày</t>
   </si>
@@ -67,6 +68,27 @@
   </si>
   <si>
     <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>b (mm)</t>
+  </si>
+  <si>
+    <t>h (mm)</t>
+  </si>
+  <si>
+    <t>c (mm)</t>
+  </si>
+  <si>
+    <t>Thép lớp trên</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đường kính</t>
+  </si>
+  <si>
+    <t>Théo lớp dưới</t>
   </si>
 </sst>
 </file>
@@ -91,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,11 +160,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +502,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E426785-261B-460B-BF5F-7403B37F3009}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>600</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>550</v>
+      </c>
+      <c r="B5">
+        <v>750</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>450</v>
+      </c>
+      <c r="B6">
+        <v>650</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>700</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>650</v>
+      </c>
+      <c r="B8">
+        <v>850</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>550</v>
+      </c>
+      <c r="B10">
+        <v>750</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>600</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>500</v>
+      </c>
+      <c r="B12">
+        <v>700</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CD0F13-1102-45BD-883E-7FC227B5361C}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -715,7 +1041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB2A760-32CC-46E3-B78B-742A2D0801E0}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I27"/>
